--- a/documents/Contract Explanations/Operational_Permissions_Matrix.xlsx
+++ b/documents/Contract Explanations/Operational_Permissions_Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\16. validator\Documents\Contract Explanations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA13BA5-648F-484A-BA4F-1B69DF0E8895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A7E373-3EC3-4F0B-ACC6-80441A4A98A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,86 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>rjp</author>
+  </authors>
+  <commentList>
+    <comment ref="K21" authorId="0" shapeId="0" xr:uid="{655E995E-8EBE-4CB1-B3DE-0F62FBF8503B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>rjp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">perEpoch: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">withdraw votingfees and protocol fees
+[PaymentsController]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bi-monthly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+withdraw unclaimedRewards
+withdraw unclaimedSubsidies
+withdrawRegistrationFees</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="182">
   <si>
     <t>Contract</t>
   </si>
@@ -445,9 +523,6 @@
     <t xml:space="preserve">OPERATIONAL PERMISSIONS TABLE </t>
   </si>
   <si>
-    <t>DEFAULT_ADMIN_ROLE will be a multi-sig comprising of signers in high-level executive positions and responsibilities.</t>
-  </si>
-  <si>
     <t>E.g. Kenneth, Minh, Caleb.</t>
   </si>
   <si>
@@ -469,33 +544,15 @@
     <t>HIGH FREQUENCY (Daily/Bi-weekly)</t>
   </si>
   <si>
-    <t>Monitor bot management (MONITOR_ADMIN_ROLE manages)</t>
-  </si>
-  <si>
-    <t>CronJob address rotation (CRON_JOB_ADMIN_ROLE manages)</t>
-  </si>
-  <si>
     <t>Epoch operations: create pools, deposit subsidies, finalize rewards (CRON_JOB_ROLE executes)</t>
   </si>
   <si>
-    <t>MEDIUM FREQUENCY (Monthly)</t>
-  </si>
-  <si>
     <t>Asset withdrawals (ASSET_MANAGER_ROLE)</t>
   </si>
   <si>
-    <t>Pool creation/removal (VOTING_CONTROLLER_ADMIN_ROLE → should be CRON_JOB_ROLE)</t>
-  </si>
-  <si>
     <t>LOW FREQUENCY (Quarterly/Governance)</t>
   </si>
   <si>
-    <t>Protocol parameter updates (Contract-specific admin roles)</t>
-  </si>
-  <si>
-    <t>Fee adjustments (Contract-specific admin roles)</t>
-  </si>
-  <si>
     <t>VERY RARE (Emergency/Governance)</t>
   </si>
   <si>
@@ -508,27 +565,95 @@
     <t>Pause/unpause/freeze operations</t>
   </si>
   <si>
+    <t>ROLE HIERARCHY</t>
+  </si>
+  <si>
+    <t>├── MONITOR_ADMIN_ROLE (Dev/Ops Team 2/3 Multi-sig)</t>
+  </si>
+  <si>
+    <t>│   └── MONITOR_ROLE (High frequency - pause bots across all contracts)</t>
+  </si>
+  <si>
+    <t>├── CRON_JOB_ADMIN_ROLE (Dev/Ops Team 2/3 Multi-sig)</t>
+  </si>
+  <si>
+    <t>│   └── CRON_JOB_ROLE (High frequency - epoch operations &amp; pool management)</t>
+  </si>
+  <si>
+    <t>├── PAYMENTS_CONTROLLER_ADMIN_ROLE (Direct to Global Admin - Executive Multi-sig)</t>
+  </si>
+  <si>
+    <t>├── VOTING_CONTROLLER_ADMIN_ROLE (Direct to Global Admin - Executive Multi-sig)</t>
+  </si>
+  <si>
+    <t>├── ASSET_MANAGER_ROLE (Direct to Global Admin - Executive Multi-sig)</t>
+  </si>
+  <si>
+    <t>└── EMERGENCY_EXIT_HANDLER_ROLE (Direct to Global Admin - Executive Multi-sig)</t>
+  </si>
+  <si>
     <r>
-      <t>1.  </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEFAULT_ADMIN_ROLE</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>High-frequency epoch operations</t>
+      <t xml:space="preserve"> will be a multi-sig comprising of signers that are hold Senior Leadership positions</t>
+    </r>
+  </si>
+  <si>
+    <t>[incl. Raynold as non-signer verifier]</t>
+  </si>
+  <si>
+    <t>Monitor bot management (MONITOR_ADMIN_ROLE enables this)</t>
+  </si>
+  <si>
+    <t>CronJob address rotation (CRON_JOB_ADMIN_ROLE enables this)</t>
+  </si>
+  <si>
+    <t>Risk bot management: rotating bots, testing bots, etc</t>
+  </si>
+  <si>
+    <t>** duration is dependent on the delay we set</t>
+  </si>
+  <si>
+    <t>MEDIUM FREQUENCY (PerEpoch to Bi-Monthly)</t>
+  </si>
+  <si>
+    <t>withdraw fees, withdrawUnclaimedX</t>
+  </si>
+  <si>
+    <t>Pool creation/removal (CRON_JOB_ROLE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocol parameter updates </t>
+  </si>
+  <si>
+    <t>Executed by contract-specific admin roles; e.g. Voting_Controller_Admin_ROLE</t>
+  </si>
+  <si>
+    <t>Fee adjustments, Unclaimed delay period, etc</t>
+  </si>
+  <si>
+    <r>
+      <t>1.  High-frequency epoch operations → </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> → </t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="9.9"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -537,6 +662,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
@@ -545,6 +671,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="9.9"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -553,6 +680,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
@@ -562,26 +690,11 @@
   </si>
   <si>
     <r>
-      <t>1. ✅ </t>
+      <t>2.  Emergency functions → </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Emergency functions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> → </t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="9.9"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -590,6 +703,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
@@ -598,6 +712,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="9.9"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -606,6 +721,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
@@ -615,26 +731,11 @@
   </si>
   <si>
     <r>
-      <t>1. ✅ </t>
+      <t xml:space="preserve">3.  Strategic functions → Contract-specific admin roles (which are subservient to </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Strategic functions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> → Contract-specific admin roles (managed by </t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="9.9"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -643,6 +744,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
@@ -652,26 +754,11 @@
   </si>
   <si>
     <r>
-      <t>1. ✅ </t>
+      <t>4.  Asset management → </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Asset management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> → </t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="9.9"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -680,6 +767,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
@@ -688,6 +776,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="9.9"/>
         <rFont val="Consolas"/>
         <family val="3"/>
@@ -696,6 +785,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
@@ -704,41 +794,17 @@
     </r>
   </si>
   <si>
-    <t>ROLE HIERARCHY</t>
-  </si>
-  <si>
-    <t>DEFAULT_ADMIN_ROLE (Global Admin - CEO/Directors Multi-sig)</t>
-  </si>
-  <si>
-    <t>├── MONITOR_ADMIN_ROLE (Dev/Ops Team 2/3 Multi-sig)</t>
-  </si>
-  <si>
-    <t>│   └── MONITOR_ROLE (High frequency - pause bots across all contracts)</t>
-  </si>
-  <si>
-    <t>├── CRON_JOB_ADMIN_ROLE (Dev/Ops Team 2/3 Multi-sig)</t>
-  </si>
-  <si>
-    <t>│   └── CRON_JOB_ROLE (High frequency - epoch operations &amp; pool management)</t>
-  </si>
-  <si>
-    <t>├── PAYMENTS_CONTROLLER_ADMIN_ROLE (Direct to Global Admin - Executive Multi-sig)</t>
-  </si>
-  <si>
-    <t>├── VOTING_CONTROLLER_ADMIN_ROLE (Direct to Global Admin - Executive Multi-sig)</t>
-  </si>
-  <si>
-    <t>├── ASSET_MANAGER_ROLE (Direct to Global Admin - Executive Multi-sig)</t>
-  </si>
-  <si>
-    <t>└── EMERGENCY_EXIT_HANDLER_ROLE (Direct to Global Admin - Executive Multi-sig)</t>
+    <t>All role assignments are dictated by frequency-based design</t>
+  </si>
+  <si>
+    <t>DEFAULT_ADMIN_ROLE (Global Admin - Executive Team Multi-sig)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,11 +832,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="2" tint="-0.499984740745262"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -789,18 +850,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.55"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.9"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -816,8 +865,98 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.55"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,23 +999,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -986,11 +1126,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1001,41 +1193,71 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,6 +1321,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256E94A1-EDC1-FB26-1420-386FC93F36DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16651941" y="6712324"/>
+          <a:ext cx="4740088" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>** e.g. if we need to rotate the VotingController Admin or Monitor_Admin_Role</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1385,11 +1682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1401,23 +1698,36 @@
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1439,8 +1749,20 @@
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1462,22 +1784,24 @@
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1499,20 +1823,22 @@
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1534,20 +1860,22 @@
       <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1569,20 +1897,22 @@
       <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1604,8 +1934,20 @@
       <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1627,8 +1969,20 @@
       <c r="G8" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1650,24 +2004,26 @@
       <c r="G9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
-    </row>
-    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1689,20 +2045,22 @@
       <c r="G10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1724,20 +2082,22 @@
       <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1759,20 +2119,22 @@
       <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1794,20 +2156,24 @@
       <c r="G13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1829,8 +2195,20 @@
       <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1852,13 +2230,22 @@
       <c r="G15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1880,11 +2267,22 @@
       <c r="G16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1906,11 +2304,22 @@
       <c r="G17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1932,11 +2341,22 @@
       <c r="G18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1958,13 +2378,22 @@
       <c r="G19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1986,11 +2415,24 @@
       <c r="G20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2012,11 +2454,24 @@
       <c r="G21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2024,13 +2479,22 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="I22" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-    </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -2052,11 +2516,22 @@
       <c r="G23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2078,11 +2553,22 @@
       <c r="G24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -2104,13 +2590,22 @@
       <c r="G25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -2132,11 +2627,22 @@
       <c r="G26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -2158,11 +2664,22 @@
       <c r="G27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -2184,11 +2701,21 @@
       <c r="G28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="36"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -2210,8 +2737,22 @@
       <c r="G29" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2219,11 +2760,22 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="I30" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -2245,11 +2797,20 @@
       <c r="G31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -2271,11 +2832,22 @@
       <c r="G32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -2297,11 +2869,22 @@
       <c r="G33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I33" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,8 +2906,22 @@
       <c r="G34" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -2346,13 +2943,22 @@
       <c r="G35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-    </row>
-    <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="J35" s="38"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -2374,11 +2980,22 @@
       <c r="G36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -2400,11 +3017,20 @@
       <c r="G37" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+    </row>
+    <row r="38" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
@@ -2426,11 +3052,22 @@
       <c r="G38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+    </row>
+    <row r="39" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
@@ -2452,11 +3089,22 @@
       <c r="G39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+    </row>
+    <row r="40" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -2478,11 +3126,22 @@
       <c r="G40" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+    </row>
+    <row r="41" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,11 +3163,22 @@
       <c r="G41" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+    </row>
+    <row r="42" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -2530,11 +3200,22 @@
       <c r="G42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I42" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+    </row>
+    <row r="43" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -2556,11 +3237,22 @@
       <c r="G43" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+    </row>
+    <row r="44" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -2582,11 +3274,22 @@
       <c r="G44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+    </row>
+    <row r="45" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -2608,8 +3311,22 @@
       <c r="G45" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+    </row>
+    <row r="46" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2617,8 +3334,22 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+    </row>
+    <row r="47" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -2640,8 +3371,22 @@
       <c r="G47" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+    </row>
+    <row r="48" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>114</v>
       </c>
@@ -2663,8 +3408,20 @@
       <c r="G48" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+    </row>
+    <row r="49" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>114</v>
       </c>
@@ -2686,8 +3443,20 @@
       <c r="G49" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+    </row>
+    <row r="50" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>114</v>
       </c>
@@ -2709,8 +3478,20 @@
       <c r="G50" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+    </row>
+    <row r="51" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
@@ -2732,8 +3513,12 @@
       <c r="G51" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>114</v>
       </c>
@@ -2755,8 +3540,12 @@
       <c r="G52" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
@@ -2779,7 +3568,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -2802,7 +3591,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
@@ -2825,7 +3614,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
@@ -2848,7 +3637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>114</v>
       </c>
@@ -2871,7 +3660,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -2894,7 +3683,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2903,7 +3692,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>134</v>
       </c>
@@ -2926,7 +3715,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>134</v>
       </c>
@@ -2971,5 +3760,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documents/Contract Explanations/Operational_Permissions_Matrix.xlsx
+++ b/documents/Contract Explanations/Operational_Permissions_Matrix.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\16. validator\Documents\Contract Explanations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A7E373-3EC3-4F0B-ACC6-80441A4A98A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E31A0B7-5C2D-4671-9096-61BC0ECEBFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="38670" windowHeight="21330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Current" sheetId="3" r:id="rId1"/>
+    <sheet name="ignore" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="289">
   <si>
     <t>Contract</t>
   </si>
@@ -799,12 +800,333 @@
   <si>
     <t>DEFAULT_ADMIN_ROLE (Global Admin - Executive Team Multi-sig)</t>
   </si>
+  <si>
+    <t>ISSUER_STAKING_CONTROLLER_ADMIN_ROLE</t>
+  </si>
+  <si>
+    <t>Update unstake delay</t>
+  </si>
+  <si>
+    <t>Update max stake amount</t>
+  </si>
+  <si>
+    <t>setMocaTransferGasLimit</t>
+  </si>
+  <si>
+    <t>Update MOCA transfer gas limit</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>Pause contract</t>
+  </si>
+  <si>
+    <t>unpause</t>
+  </si>
+  <si>
+    <t>Unpause contract</t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>Freeze contract (kill switch)</t>
+  </si>
+  <si>
+    <t>emergencyExit</t>
+  </si>
+  <si>
+    <t>Return stakes to issuers</t>
+  </si>
+  <si>
+    <t>IssuerstakingController</t>
+  </si>
+  <si>
+    <t>setUnstakeDelay()</t>
+  </si>
+  <si>
+    <t>setMaxSingleStakeAmount()</t>
+  </si>
+  <si>
+    <t>setMocaTransferGasLimit()</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>setVerifierSubsidyTiers</t>
+  </si>
+  <si>
+    <t>escrowMocaOnBehalf</t>
+  </si>
+  <si>
+    <t>claimPenalties</t>
+  </si>
+  <si>
+    <t>releaseEscrowedMoca</t>
+  </si>
+  <si>
+    <t>setRedemptionOption</t>
+  </si>
+  <si>
+    <t>setVotingController</t>
+  </si>
+  <si>
+    <t>processVerifierChecks</t>
+  </si>
+  <si>
+    <t>forceFinalizeEpoch</t>
+  </si>
+  <si>
+    <t>whitelistPool()</t>
+  </si>
+  <si>
+    <t>Whitelist/unwhitelist pool</t>
+  </si>
+  <si>
+    <t>clearVerifierSubsidyTiers</t>
+  </si>
+  <si>
+    <t>Set verifier subsidy tiers</t>
+  </si>
+  <si>
+    <t>Clear subsidy tiers</t>
+  </si>
+  <si>
+    <t>Update MOCA transfer gas limit</t>
+  </si>
+  <si>
+    <t>EMERGENCY_EXIT_HANDLER_ROLE </t>
+  </si>
+  <si>
+    <t>emergencyExitFees()</t>
+  </si>
+  <si>
+    <t>Exfiltrate fees to treasury</t>
+  </si>
+  <si>
+    <t>EscrowedMoca</t>
+  </si>
+  <si>
+    <t>setVotersPenaltyPct</t>
+  </si>
+  <si>
+    <t>ESCROWED_MOCA_ADMIN_ROLE</t>
+  </si>
+  <si>
+    <t>Update voter penalty %</t>
+  </si>
+  <si>
+    <t>Configure redemption option</t>
+  </si>
+  <si>
+    <t>setRedemptionOptionStatus</t>
+  </si>
+  <si>
+    <t>Enable/disable redemption option</t>
+  </si>
+  <si>
+    <t>setWhitelistStatus</t>
+  </si>
+  <si>
+    <t>Whitelist addresses</t>
+  </si>
+  <si>
+    <t>Update MOCA transfer gas limit</t>
+  </si>
+  <si>
+    <t>Escrow MOCA for users (batch)</t>
+  </si>
+  <si>
+    <t>Claim penalties to treasury</t>
+  </si>
+  <si>
+    <t>Exfiltrate assets to treasury</t>
+  </si>
+  <si>
+    <t>Release escrowed MOCA instantly</t>
+  </si>
+  <si>
+    <t>VOTING_ESCROW_MOCA_ADMIN_ROLE</t>
+  </si>
+  <si>
+    <t>Update VotingController address</t>
+  </si>
+  <si>
+    <t>updateAccountsAndPendingDeltas</t>
+  </si>
+  <si>
+    <t>Update account checkpoints</t>
+  </si>
+  <si>
+    <t>updateDelegatePairs</t>
+  </si>
+  <si>
+    <t>Update delegate pair checkpoints</t>
+  </si>
+  <si>
+    <t>createLockOnBehalfOf</t>
+  </si>
+  <si>
+    <t>Create locks for users (batch)</t>
+  </si>
+  <si>
+    <t>Return lock assets to users</t>
+  </si>
+  <si>
+    <t>createPools</t>
+  </si>
+  <si>
+    <t>Create voting pools</t>
+  </si>
+  <si>
+    <t>removePools</t>
+  </si>
+  <si>
+    <t>Remove voting pools</t>
+  </si>
+  <si>
+    <t>setVotingControllerTreasury</t>
+  </si>
+  <si>
+    <t>Update treasury address</t>
+  </si>
+  <si>
+    <t>setDelegateRegistrationFee</t>
+  </si>
+  <si>
+    <t>Update registration fee</t>
+  </si>
+  <si>
+    <t>setMaxDelegateFeePct</t>
+  </si>
+  <si>
+    <t>Update max delegate fee %</t>
+  </si>
+  <si>
+    <t>setFeeIncreaseDelayEpochs</t>
+  </si>
+  <si>
+    <t>Update fee delay epochs</t>
+  </si>
+  <si>
+    <t>setUnclaimedDelay</t>
+  </si>
+  <si>
+    <t>Update unclaimed sweep delay</t>
+  </si>
+  <si>
+    <t>endEpoch</t>
+  </si>
+  <si>
+    <t>End epoch, transition to Ended</t>
+  </si>
+  <si>
+    <t>Block verifiers, transition to Verified</t>
+  </si>
+  <si>
+    <t>processRewardsAndSubsidies</t>
+  </si>
+  <si>
+    <t>Allocate rewards/subsidies to pools</t>
+  </si>
+  <si>
+    <t>finalizeEpoch</t>
+  </si>
+  <si>
+    <t>Finalize epoch, open claims</t>
+  </si>
+  <si>
+    <t>withdrawUnclaimedRewards</t>
+  </si>
+  <si>
+    <t>Sweep unclaimed rewards</t>
+  </si>
+  <si>
+    <t>withdrawUnclaimedSubsidies</t>
+  </si>
+  <si>
+    <t>Sweep unclaimed subsidies</t>
+  </si>
+  <si>
+    <t>withdrawRegistrationFees</t>
+  </si>
+  <si>
+    <t>Withdraw registration fees</t>
+  </si>
+  <si>
+    <t>Freeze contract (kill switch)</t>
+  </si>
+  <si>
+    <t>Force finalize epoch</t>
+  </si>
+  <si>
+    <t>Exfiltrate all assets to treasury</t>
+  </si>
+  <si>
+    <t>Call Frequency Scale</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Called every epoch or multiple times per epoch (automated/scheduled)</t>
+  </si>
+  <si>
+    <t>Epoch finalization steps, checkpoint updates</t>
+  </si>
+  <si>
+    <t>Called periodically but not every epoch; operational adjustments</t>
+  </si>
+  <si>
+    <t>Fee withdrawals, parameter updates</t>
+  </si>
+  <si>
+    <t>Infrequent; only when system changes are needed</t>
+  </si>
+  <si>
+    <t>Pool creation/removal, treasury updates</t>
+  </si>
+  <si>
+    <t>One-time or near one-time; major protocol changes</t>
+  </si>
+  <si>
+    <t>Subsidy tier configuration, contract address updates</t>
+  </si>
+  <si>
+    <t>Only in crisis situations; should never be called under normal operations</t>
+  </si>
+  <si>
+    <t>Pause, freeze, emergency exit, force finalize</t>
+  </si>
+  <si>
+    <t>Bot</t>
+  </si>
+  <si>
+    <t>Contract Admin: various contracts</t>
+  </si>
+  <si>
+    <t>Multi-sig: 2/3</t>
+  </si>
+  <si>
+    <t>Low to Medium updates for contract configuration and parameters changes</t>
+  </si>
+  <si>
+    <t>Would suggest a different mix of actors for contract admins vs monitor and cron admin group</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,8 +1277,36 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,8 +1361,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1178,11 +1534,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1209,9 +1578,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1237,8 +1603,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1257,12 +1623,830 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="90">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1682,11 +2866,2758 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13524E0B-76A9-466D-A283-4E6E4EA71049}">
+  <dimension ref="A1:T75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="I10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="I27" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="45"/>
+      <c r="K27" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+    </row>
+    <row r="38" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+    </row>
+    <row r="39" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+    </row>
+    <row r="40" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="I40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+    </row>
+    <row r="41" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+    </row>
+    <row r="42" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+    </row>
+    <row r="43" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+    </row>
+    <row r="44" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+    </row>
+    <row r="45" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+    </row>
+    <row r="46" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+    </row>
+    <row r="47" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+    </row>
+    <row r="48" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+    </row>
+    <row r="49" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+    </row>
+    <row r="50" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+    </row>
+    <row r="51" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+    </row>
+    <row r="52" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+    </row>
+    <row r="53" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+    </row>
+    <row r="54" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+    </row>
+    <row r="55" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+    </row>
+    <row r="56" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+    </row>
+    <row r="57" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+    </row>
+    <row r="58" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+    </row>
+    <row r="59" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+    </row>
+    <row r="60" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+    </row>
+    <row r="61" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+    </row>
+    <row r="62" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+    </row>
+    <row r="63" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+    </row>
+    <row r="64" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+    </row>
+    <row r="65" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+    </row>
+    <row r="66" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+    </row>
+    <row r="67" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+    </row>
+    <row r="68" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+    </row>
+    <row r="69" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+    </row>
+    <row r="70" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+    </row>
+    <row r="71" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+    </row>
+    <row r="72" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+    </row>
+    <row r="73" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2 E76:E1048576">
+    <cfRule type="containsText" dxfId="89" priority="101" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="102" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="103" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="104" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="105" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70 E59:E66 E54:E55 E48:E52 E43:E45 E38:E40 E33:E35 E23:E30 E8:E17 E3:E4">
+    <cfRule type="containsText" dxfId="84" priority="76" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="77" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="78" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="79" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="Emergency">
+      <formula>NOT(ISERROR(SEARCH("Emergency",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="containsText" dxfId="79" priority="71" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="72" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="73" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="74" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="containsText" dxfId="74" priority="66" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="67" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="68" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" dxfId="69" priority="61" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="62" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="63" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="64" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="containsText" dxfId="64" priority="56" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsText" dxfId="59" priority="51" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="52" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="53" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="54" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="containsText" dxfId="54" priority="46" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="48" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:E42">
+    <cfRule type="containsText" dxfId="49" priority="41" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="42" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E37">
+    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E22">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E20">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Emergency">
+      <formula>NOT(ISERROR(SEARCH("Emergency",E19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1705,15 +5636,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -1784,10 +5715,10 @@
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="12"/>
@@ -2004,13 +5935,13 @@
       <c r="G9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="12"/>
@@ -2230,12 +6161,12 @@
       <c r="G15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2267,7 +6198,7 @@
       <c r="G16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="24" t="s">
         <v>166</v>
       </c>
       <c r="J16" s="7"/>
@@ -2304,7 +6235,7 @@
       <c r="G17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="24" t="s">
         <v>167</v>
       </c>
       <c r="J17" s="7"/>
@@ -2341,7 +6272,7 @@
       <c r="G18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="24" t="s">
         <v>148</v>
       </c>
       <c r="J18" s="7"/>
@@ -2378,7 +6309,7 @@
       <c r="G19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="24" t="s">
         <v>168</v>
       </c>
       <c r="J19" s="7"/>
@@ -2415,13 +6346,13 @@
       <c r="G20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="24" t="s">
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="23" t="s">
         <v>169</v>
       </c>
       <c r="N20" s="7"/>
@@ -2454,12 +6385,12 @@
       <c r="G21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="24" t="s">
         <v>149</v>
       </c>
       <c r="J21" s="7"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29" t="s">
+      <c r="K21" s="27"/>
+      <c r="L21" s="28" t="s">
         <v>171</v>
       </c>
       <c r="M21" s="7"/>
@@ -2479,7 +6410,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J22" s="7"/>
@@ -2516,12 +6447,12 @@
       <c r="G23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2553,7 +6484,7 @@
       <c r="G24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="24" t="s">
         <v>173</v>
       </c>
       <c r="J24" s="7"/>
@@ -2590,7 +6521,7 @@
       <c r="G25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="24" t="s">
         <v>175</v>
       </c>
       <c r="J25" s="7"/>
@@ -2627,12 +6558,12 @@
       <c r="G26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="23"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2664,12 +6595,12 @@
       <c r="G27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2701,11 +6632,11 @@
       <c r="G28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="24" t="s">
         <v>152</v>
       </c>
       <c r="J28" s="7"/>
-      <c r="K28" s="36"/>
+      <c r="K28" s="35"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2737,7 +6668,7 @@
       <c r="G29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="24" t="s">
         <v>153</v>
       </c>
       <c r="J29" s="7"/>
@@ -2760,7 +6691,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="24" t="s">
         <v>154</v>
       </c>
       <c r="J30" s="7"/>
@@ -2832,12 +6763,12 @@
       <c r="G32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="33"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2869,7 +6800,7 @@
       <c r="G33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="36" t="s">
         <v>176</v>
       </c>
       <c r="J33" s="7"/>
@@ -2906,7 +6837,7 @@
       <c r="G34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="36" t="s">
         <v>177</v>
       </c>
       <c r="J34" s="7"/>
@@ -2943,10 +6874,10 @@
       <c r="G35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="J35" s="38"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -2980,7 +6911,7 @@
       <c r="G36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="36" t="s">
         <v>179</v>
       </c>
       <c r="J36" s="7"/>
@@ -3052,11 +6983,11 @@
       <c r="G38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="21" t="s">
         <v>155</v>
       </c>
       <c r="J38" s="14"/>
-      <c r="K38" s="26"/>
+      <c r="K38" s="25"/>
       <c r="L38" s="15"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -3089,7 +7020,7 @@
       <c r="G39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I39" s="26" t="s">
         <v>181</v>
       </c>
       <c r="J39" s="7"/>

--- a/documents/Contract Explanations/Operational_Permissions_Matrix.xlsx
+++ b/documents/Contract Explanations/Operational_Permissions_Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\16. validator\Documents\Contract Explanations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E31A0B7-5C2D-4671-9096-61BC0ECEBFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7B48CC-6124-4F3F-A115-1AE430A1B9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="38670" windowHeight="21330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="38370" windowHeight="21030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="3" r:id="rId1"/>
@@ -1623,9 +1623,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1643,11 +1640,14 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -1696,23 +1696,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -1743,6 +1726,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -1760,12 +1753,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1775,7 +1765,14 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1785,7 +1782,143 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1840,657 +1973,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2870,7 +2352,7 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2890,15 +2372,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -2950,7 +2432,7 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>195</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2971,13 +2453,13 @@
       <c r="G3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>273</v>
       </c>
       <c r="L3" s="7"/>
@@ -3010,13 +2492,13 @@
       <c r="G4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="39" t="s">
         <v>275</v>
       </c>
       <c r="L4" s="7"/>
@@ -3049,13 +2531,13 @@
       <c r="G5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="39" t="s">
         <v>277</v>
       </c>
       <c r="L5" s="7"/>
@@ -3088,13 +2570,13 @@
       <c r="G6" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="39" t="s">
         <v>279</v>
       </c>
       <c r="L6" s="7"/>
@@ -3127,13 +2609,13 @@
       <c r="G7" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="39" t="s">
         <v>281</v>
       </c>
       <c r="L7" s="7"/>
@@ -3157,7 +2639,7 @@
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -3166,13 +2648,13 @@
       <c r="G8" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="39" t="s">
         <v>283</v>
       </c>
       <c r="L8" s="7"/>
@@ -3196,7 +2678,7 @@
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -3226,13 +2708,11 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="I10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="13"/>
+      <c r="I10" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -3244,7 +2724,7 @@
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3265,11 +2745,11 @@
       <c r="G11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>164</v>
+      <c r="I11" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -3300,11 +2780,11 @@
       <c r="G12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>141</v>
+      <c r="I12" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -3335,11 +2815,11 @@
       <c r="G13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
+      <c r="I13" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -3370,7 +2850,9 @@
       <c r="G14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="36" t="s">
+        <v>179</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -3436,15 +2918,11 @@
       <c r="G16" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="I16" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -3475,11 +2953,11 @@
       <c r="G17" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>143</v>
+      <c r="I17" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -3510,11 +2988,11 @@
       <c r="G18" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>144</v>
+      <c r="I18" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -3545,11 +3023,11 @@
       <c r="G19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>145</v>
+      <c r="I19" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -3580,11 +3058,11 @@
       <c r="G20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="42" t="s">
-        <v>286</v>
+      <c r="I20" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -3615,13 +3093,11 @@
       <c r="G21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="44" t="s">
-        <v>165</v>
-      </c>
+      <c r="I21" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -3632,7 +3108,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
     </row>
-    <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>73</v>
@@ -3652,7 +3128,9 @@
       <c r="G22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -3665,7 +3143,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
     </row>
-    <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>75</v>
@@ -3676,7 +3154,7 @@
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -3685,13 +3163,11 @@
       <c r="G23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="K23" s="18"/>
+      <c r="I23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -3713,7 +3189,7 @@
       <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -3722,11 +3198,11 @@
       <c r="G24" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>287</v>
+      <c r="I24" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -3748,7 +3224,7 @@
       <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -3757,11 +3233,11 @@
       <c r="G25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="46" t="s">
-        <v>288</v>
+      <c r="I25" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -3783,7 +3259,7 @@
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -3792,11 +3268,9 @@
       <c r="G26" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="42" t="s">
-        <v>286</v>
-      </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -3807,7 +3281,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
     </row>
-    <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3815,13 +3289,9 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="I27" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="44" t="s">
-        <v>165</v>
-      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -3832,8 +3302,8 @@
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
     </row>
-    <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
         <v>217</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3854,9 +3324,13 @@
       <c r="G28" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="I28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="13"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -3867,7 +3341,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="29" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>204</v>
@@ -3887,9 +3361,11 @@
       <c r="G29" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I29" s="7"/>
+      <c r="I29" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -3900,7 +3376,7 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
     </row>
-    <row r="30" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>222</v>
@@ -3920,11 +3396,11 @@
       <c r="G30" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I30" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="32"/>
+      <c r="I30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -3955,11 +3431,11 @@
       <c r="G31" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I31" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -3990,9 +3466,7 @@
       <c r="G32" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I32" s="36" t="s">
-        <v>177</v>
-      </c>
+      <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -4005,7 +3479,7 @@
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
     </row>
-    <row r="33" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>201</v>
@@ -4025,9 +3499,7 @@
       <c r="G33" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I33" s="36" t="s">
-        <v>178</v>
-      </c>
+      <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -4040,7 +3512,7 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
     </row>
-    <row r="34" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>202</v>
@@ -4060,11 +3532,15 @@
       <c r="G34" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I34" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="I34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -4075,7 +3551,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>203</v>
@@ -4095,9 +3571,11 @@
       <c r="G35" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="K35" s="8"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -4108,7 +3586,7 @@
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
     </row>
-    <row r="36" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>187</v>
@@ -4128,11 +3606,11 @@
       <c r="G36" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="32"/>
+      <c r="I36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -4163,11 +3641,11 @@
       <c r="G37" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I37" s="26" t="s">
-        <v>181</v>
+      <c r="I37" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="K37" s="8"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -4189,7 +3667,7 @@
       <c r="D38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -4198,11 +3676,11 @@
       <c r="G38" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I38" s="7" t="s">
-        <v>156</v>
+      <c r="I38" s="41" t="s">
+        <v>286</v>
       </c>
       <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -4224,7 +3702,7 @@
       <c r="D39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -4233,11 +3711,13 @@
       <c r="G39" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="I39" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="43" t="s">
+        <v>165</v>
+      </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -4248,7 +3728,7 @@
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
     </row>
-    <row r="40" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4256,9 +3736,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="I40" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -4271,8 +3749,8 @@
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
     </row>
-    <row r="41" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
+    <row r="41" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="40" t="s">
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -4293,11 +3771,13 @@
       <c r="G41" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I41" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="I41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" s="18"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -4328,11 +3808,11 @@
       <c r="G42" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>160</v>
+      <c r="I42" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="8"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -4363,11 +3843,11 @@
       <c r="G43" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>161</v>
+      <c r="I43" s="45" t="s">
+        <v>288</v>
       </c>
       <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="K43" s="8"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -4398,11 +3878,11 @@
       <c r="G44" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>162</v>
+      <c r="I44" s="41" t="s">
+        <v>286</v>
       </c>
       <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
+      <c r="K44" s="8"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
@@ -4433,11 +3913,13 @@
       <c r="G45" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="I45" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J45" s="44"/>
+      <c r="K45" s="43" t="s">
+        <v>165</v>
+      </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -4525,7 +4007,7 @@
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -4558,7 +4040,7 @@
       <c r="D49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -4602,7 +4084,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -4854,9 +4336,6 @@
       <c r="G58" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
@@ -4887,9 +4366,6 @@
       <c r="G59" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -4920,9 +4396,6 @@
       <c r="G60" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
@@ -4953,9 +4426,6 @@
       <c r="G61" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
@@ -4986,9 +4456,6 @@
       <c r="G62" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
@@ -5010,7 +4477,7 @@
       <c r="D63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -5019,9 +4486,6 @@
       <c r="G63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
@@ -5052,9 +4516,6 @@
       <c r="G64" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
@@ -5208,7 +4669,7 @@
       <c r="D69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F69" s="3" t="s">
@@ -5241,7 +4702,7 @@
       <c r="D70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="41" t="s">
+      <c r="E70" s="40" t="s">
         <v>199</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -5320,292 +4781,131 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="E2 E76:E1048576">
-    <cfRule type="containsText" dxfId="89" priority="101" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="102" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="103" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="104" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="105" operator="containsText" text="Very Rare">
+    <cfRule type="containsText" dxfId="36" priority="105" operator="containsText" text="Very Rare">
       <formula>NOT(ISERROR(SEARCH("Very Rare",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E70 E59:E66 E54:E55 E48:E52 E43:E45 E38:E40 E33:E35 E23:E30 E8:E17 E3:E4">
-    <cfRule type="containsText" dxfId="84" priority="76" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
+  <conditionalFormatting sqref="E2:E70">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="77" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E3)))</formula>
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="78" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="79" operator="containsText" text="High">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E4 E8:E17 E23:E30 E33:E35 E38:E40 E43:E45 E48:E52 E54:E55 E59:E66 E69:E70">
+    <cfRule type="containsText" dxfId="32" priority="79" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="Emergency">
+    <cfRule type="containsText" dxfId="31" priority="80" operator="containsText" text="Emergency">
       <formula>NOT(ISERROR(SEARCH("Emergency",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E68">
-    <cfRule type="containsText" dxfId="79" priority="71" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E67)))</formula>
+  <conditionalFormatting sqref="E5:E7">
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="72" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="73" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="74" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="74" priority="66" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="67" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="68" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="69" priority="61" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="62" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="63" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="64" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="64" priority="56" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="59" priority="51" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="52" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="53" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="54" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="containsText" dxfId="54" priority="46" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="48" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E42">
-    <cfRule type="containsText" dxfId="49" priority="41" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="42" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:E37">
-    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E22">
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E21)))</formula>
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Very Rare">
+    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="Very Rare">
       <formula>NOT(ISERROR(SEARCH("Very Rare",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E20">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Emergency">
+    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="Emergency">
       <formula>NOT(ISERROR(SEARCH("Emergency",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E7">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
+  <conditionalFormatting sqref="E21:E22">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E6)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Rare">
-      <formula>NOT(ISERROR(SEARCH("Rare",E5)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E37">
+    <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E5)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="40" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Very Rare">
-      <formula>NOT(ISERROR(SEARCH("Very Rare",E5)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:E42">
+    <cfRule type="containsText" dxfId="18" priority="44" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="containsText" dxfId="16" priority="49" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="50" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsText" dxfId="14" priority="54" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="55" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E58">
+    <cfRule type="containsText" dxfId="12" priority="59" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="60" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="containsText" dxfId="10" priority="74" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="75" operator="containsText" text="Very Rare">
+      <formula>NOT(ISERROR(SEARCH("Very Rare",E67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76:E1048576 E2">
+    <cfRule type="containsText" dxfId="8" priority="104" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76:E1048576">
+    <cfRule type="containsText" dxfId="7" priority="101" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="102" operator="containsText" text="Rare">
+      <formula>NOT(ISERROR(SEARCH("Rare",E76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="103" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5636,15 +4936,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
